--- a/design/YumME_Orders.xlsx
+++ b/design/YumME_Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpomper/Documents/GitHub/rpomper.github.io/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF859C1-D4C0-0241-B7FD-92A6D883070F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA10CA-1C8E-B243-99AD-10AF1ED468EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="27780" windowHeight="16180" activeTab="12" xr2:uid="{D2CD0252-D18D-9248-ACAB-F4430FFBE6AB}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="27780" windowHeight="16180" activeTab="6" xr2:uid="{D2CD0252-D18D-9248-ACAB-F4430FFBE6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Norms" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Raw5" sheetId="9" r:id="rId4"/>
     <sheet name="Counterbalancing" sheetId="3" r:id="rId5"/>
     <sheet name="Order1" sheetId="4" r:id="rId6"/>
-    <sheet name="Order2" sheetId="5" r:id="rId7"/>
-    <sheet name="Order3" sheetId="7" r:id="rId8"/>
-    <sheet name="Order4" sheetId="8" r:id="rId9"/>
-    <sheet name="Order5" sheetId="10" r:id="rId10"/>
-    <sheet name="Order6" sheetId="11" r:id="rId11"/>
-    <sheet name="Order7" sheetId="12" r:id="rId12"/>
-    <sheet name="Order8" sheetId="13" r:id="rId13"/>
+    <sheet name="Order1 (2)" sheetId="14" r:id="rId7"/>
+    <sheet name="Order2" sheetId="5" r:id="rId8"/>
+    <sheet name="Order3" sheetId="7" r:id="rId9"/>
+    <sheet name="Order4" sheetId="8" r:id="rId10"/>
+    <sheet name="Order5" sheetId="10" r:id="rId11"/>
+    <sheet name="Order6" sheetId="11" r:id="rId12"/>
+    <sheet name="Order7" sheetId="12" r:id="rId13"/>
+    <sheet name="Order8" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="112">
   <si>
     <t>stimulus</t>
   </si>
@@ -371,6 +372,15 @@
   <si>
     <t>swapped targets of 4</t>
   </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>playroom</t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
 </sst>
 </file>
 
@@ -444,26 +454,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -789,17 +799,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -842,10 +852,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>98.8</v>
       </c>
       <c r="C4">
@@ -917,7 +927,7 @@
       <c r="F7">
         <v>92.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>125</v>
       </c>
     </row>
@@ -985,7 +995,7 @@
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>AVERAGE(B3:B10)</f>
         <v>92.212499999999991</v>
       </c>
@@ -1015,6 +1025,786 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDB7BEE-C4CB-9847-91B4-B5611A348357}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456200A-7806-CA46-905E-2954BE2B3F82}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -1243,7 +2033,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -1443,7 +2233,7 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -1530,301 +2320,301 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76919137-2B60-5F4A-BD3D-AD1102DF9EC3}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -2053,7 +2843,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -2253,7 +3043,7 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -2340,262 +3130,262 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2604,7 +3394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5845553-2A31-9A46-B780-65DB3E3319E0}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -2833,7 +3623,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -3033,7 +3823,7 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -3120,305 +3910,305 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD79910D-CC9A-204F-8570-E26C88A88436}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3643,7 +4433,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -3843,7 +4633,7 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -3930,262 +4720,262 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4199,7 +4989,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4676,7 +5466,7 @@
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
@@ -4699,7 +5489,7 @@
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
@@ -5625,7 +6415,7 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
@@ -5651,7 +6441,7 @@
       <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
@@ -5781,10 +6571,10 @@
       <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
@@ -5807,10 +6597,10 @@
       <c r="C28" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
@@ -5827,8 +6617,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
@@ -5837,10 +6627,10 @@
       <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
@@ -5863,10 +6653,10 @@
       <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
@@ -5883,8 +6673,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -5893,10 +6683,10 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
@@ -5919,10 +6709,10 @@
       <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
@@ -6428,7 +7218,7 @@
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
@@ -6451,7 +7241,7 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
@@ -6933,22 +7723,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -6995,11 +7785,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7011,7 +7801,7 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7025,7 +7815,7 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7037,7 +7827,7 @@
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7049,14 +7839,14 @@
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7068,7 +7858,7 @@
       <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7082,7 +7872,7 @@
       <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7094,7 +7884,7 @@
       <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -7106,17 +7896,17 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="11"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7128,7 +7918,7 @@
       <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7142,7 +7932,7 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7154,7 +7944,7 @@
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -7166,61 +7956,61 @@
       <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="11"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="E27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="13">
         <v>6</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="E29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>7</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>8</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7247,7 +8037,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7471,7 +8261,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -7671,7 +8461,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -7758,294 +8548,294 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:I31">
@@ -8056,6 +8846,775 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78300154-E703-AB41-B7BC-0FF4841A235D}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D6F17E-E7FB-4E46-BB7B-C7BAD8BAE859}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -8284,7 +9843,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -8484,7 +10043,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -8571,262 +10130,262 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8835,7 +10394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4311D1E1-988E-3D46-9395-E9B2BCDDB090}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -9064,7 +10623,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -9264,7 +10823,7 @@
       <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -9351,1074 +10910,294 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDB7BEE-C4CB-9847-91B4-B5611A348357}">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>74</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>79</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>83</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
